--- a/docs/Результаты машины1_10тыс.xlsx
+++ b/docs/Результаты машины1_10тыс.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ucheba\engineering\lab5 area\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\labs\semen\lab5 area\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B23FDA-CA83-4661-A9A3-5A4CB0264B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A8D1A4-74AA-425A-B48F-2A5F83A1EF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="39">
   <si>
     <t>Тип данных</t>
   </si>
@@ -118,6 +121,30 @@
   </si>
   <si>
     <t>&lt;1</t>
+  </si>
+  <si>
+    <t>Время заполнения</t>
+  </si>
+  <si>
+    <t>10тыс, мс</t>
+  </si>
+  <si>
+    <t>100тыс, мс</t>
+  </si>
+  <si>
+    <t>1млн, мс</t>
+  </si>
+  <si>
+    <t>100млн, мс</t>
+  </si>
+  <si>
+    <t>1млрд, мс</t>
+  </si>
+  <si>
+    <t>2млрд, мс</t>
+  </si>
+  <si>
+    <t>Долго</t>
   </si>
 </sst>
 </file>
@@ -296,9 +323,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -310,19 +350,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -338,6 +372,4269 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$40:$G$40</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$41:$G$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E467-4DED-B658-AC7EBB002D68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>long</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$40:$G$40</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$42:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1738</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36042</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E467-4DED-B658-AC7EBB002D68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>short</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$40:$G$40</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$43:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E467-4DED-B658-AC7EBB002D68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$40:$G$40</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$44:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28047</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E467-4DED-B658-AC7EBB002D68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$40:$G$40</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$45:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E467-4DED-B658-AC7EBB002D68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$40:$G$40</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$46:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1591</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E467-4DED-B658-AC7EBB002D68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$40:$G$40</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$47:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E467-4DED-B658-AC7EBB002D68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>longlong</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$40:$G$40</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$48:$G$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E467-4DED-B658-AC7EBB002D68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ulonglong</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$40:$G$40</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$49:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44879</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E467-4DED-B658-AC7EBB002D68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$40:$G$40</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$50:$G$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1820</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-E467-4DED-B658-AC7EBB002D68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$40:$G$40</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$51:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-E467-4DED-B658-AC7EBB002D68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$40:$G$40</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$52:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1926</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-E467-4DED-B658-AC7EBB002D68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$40:$G$40</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$53:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-E467-4DED-B658-AC7EBB002D68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$40:$G$40</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$54:$G$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-E467-4DED-B658-AC7EBB002D68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1540796543"/>
+        <c:axId val="1540804447"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1540796543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1540804447"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1540804447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1540796543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1281211288859706E-2"/>
+          <c:y val="1.5274231673449809E-2"/>
+          <c:w val="0.91757876517023684"/>
+          <c:h val="0.81737257003586505"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Лист1!$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Лист1!$B$61:$G$61</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Лист1!$B$62:$G$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59711</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1975-4793-8405-184B6DB90855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Лист1!$A$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>long</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Лист1!$B$61:$G$61</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Лист1!$B$63:$G$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1566</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1975-4793-8405-184B6DB90855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Лист1!$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>short</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Лист1!$B$61:$G$61</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Лист1!$B$64:$G$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13323</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1975-4793-8405-184B6DB90855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Лист1!$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Лист1!$B$61:$G$61</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Лист1!$B$65:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11157</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50464</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1975-4793-8405-184B6DB90855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Лист1!$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Лист1!$B$61:$G$61</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Лист1!$B$66:$G$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13033</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1975-4793-8405-184B6DB90855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Лист1!$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Лист1!$B$61:$G$61</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Лист1!$B$67:$G$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1591</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1975-4793-8405-184B6DB90855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Лист1!$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Лист1!$B$61:$G$61</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Лист1!$B$68:$G$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1975-4793-8405-184B6DB90855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Лист1!$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>longlong</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Лист1!$B$61:$G$61</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Лист1!$B$69:$G$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1975-4793-8405-184B6DB90855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Лист1!$A$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ulonglong</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Лист1!$B$61:$G$61</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Лист1!$B$70:$G$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1975-4793-8405-184B6DB90855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Лист1!$A$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Лист1!$B$61:$G$61</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Лист1!$B$71:$G$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1723</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-1975-4793-8405-184B6DB90855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Лист1!$A$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Лист1!$B$61:$G$61</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Лист1!$B$72:$G$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-1975-4793-8405-184B6DB90855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Лист1!$A$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Лист1!$B$61:$G$61</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Лист1!$B$73:$G$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1926</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-1975-4793-8405-184B6DB90855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Лист1!$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Лист1!$B$61:$G$61</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Лист1!$B$74:$G$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-1975-4793-8405-184B6DB90855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Лист1!$A$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Лист1!$B$61:$G$61</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100тыс, мс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100млн, мс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1млрд, мс</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2млрд, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Лист1!$B$75:$G$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-1975-4793-8405-184B6DB90855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1604687631"/>
+        <c:axId val="1604676399"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1604687631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1604676399"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1604676399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1604687631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35D7163D-F507-4851-BE88-3D26A36F198C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8364D072-E254-4232-AD62-16BFEE2832C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>10тыс, мс</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>100тыс, мс</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v>1млн, мс</v>
+          </cell>
+          <cell r="E61" t="str">
+            <v>100млн, мс</v>
+          </cell>
+          <cell r="F61" t="str">
+            <v>1млрд, мс</v>
+          </cell>
+          <cell r="G61" t="str">
+            <v>2млрд, мс</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>int</v>
+          </cell>
+          <cell r="B62">
+            <v>17</v>
+          </cell>
+          <cell r="C62">
+            <v>60</v>
+          </cell>
+          <cell r="D62">
+            <v>5461</v>
+          </cell>
+          <cell r="E62">
+            <v>59711</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>long</v>
+          </cell>
+          <cell r="B63">
+            <v>4</v>
+          </cell>
+          <cell r="C63">
+            <v>12</v>
+          </cell>
+          <cell r="D63">
+            <v>20</v>
+          </cell>
+          <cell r="E63">
+            <v>1566</v>
+          </cell>
+          <cell r="F63">
+            <v>16567</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>short</v>
+          </cell>
+          <cell r="B64">
+            <v>3</v>
+          </cell>
+          <cell r="C64">
+            <v>5</v>
+          </cell>
+          <cell r="D64">
+            <v>17</v>
+          </cell>
+          <cell r="E64">
+            <v>1285</v>
+          </cell>
+          <cell r="F64">
+            <v>13323</v>
+          </cell>
+          <cell r="G64">
+            <v>43097</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>int8</v>
+          </cell>
+          <cell r="B65">
+            <v>3</v>
+          </cell>
+          <cell r="C65">
+            <v>4</v>
+          </cell>
+          <cell r="D65">
+            <v>15</v>
+          </cell>
+          <cell r="E65">
+            <v>1056</v>
+          </cell>
+          <cell r="F65">
+            <v>11157</v>
+          </cell>
+          <cell r="G65">
+            <v>50464</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>int16</v>
+          </cell>
+          <cell r="B66">
+            <v>3</v>
+          </cell>
+          <cell r="C66">
+            <v>9</v>
+          </cell>
+          <cell r="D66">
+            <v>17</v>
+          </cell>
+          <cell r="E66">
+            <v>1295</v>
+          </cell>
+          <cell r="F66">
+            <v>13033</v>
+          </cell>
+          <cell r="G66">
+            <v>43097</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>int32</v>
+          </cell>
+          <cell r="B67">
+            <v>3</v>
+          </cell>
+          <cell r="C67">
+            <v>5</v>
+          </cell>
+          <cell r="D67">
+            <v>20</v>
+          </cell>
+          <cell r="E67">
+            <v>1591</v>
+          </cell>
+          <cell r="F67">
+            <v>15824</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>int64</v>
+          </cell>
+          <cell r="B68">
+            <v>5</v>
+          </cell>
+          <cell r="C68">
+            <v>6</v>
+          </cell>
+          <cell r="D68">
+            <v>19</v>
+          </cell>
+          <cell r="E68">
+            <v>1584</v>
+          </cell>
+          <cell r="F68">
+            <v>24215</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>longlong</v>
+          </cell>
+          <cell r="B69">
+            <v>4</v>
+          </cell>
+          <cell r="C69">
+            <v>5</v>
+          </cell>
+          <cell r="D69">
+            <v>19</v>
+          </cell>
+          <cell r="E69">
+            <v>1607</v>
+          </cell>
+          <cell r="F69">
+            <v>24200</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>ulonglong</v>
+          </cell>
+          <cell r="B70">
+            <v>6</v>
+          </cell>
+          <cell r="C70">
+            <v>5</v>
+          </cell>
+          <cell r="D70">
+            <v>19</v>
+          </cell>
+          <cell r="E70">
+            <v>1607</v>
+          </cell>
+          <cell r="F70">
+            <v>24320</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>float</v>
+          </cell>
+          <cell r="B71">
+            <v>25</v>
+          </cell>
+          <cell r="C71">
+            <v>195</v>
+          </cell>
+          <cell r="D71">
+            <v>1723</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>float16</v>
+          </cell>
+          <cell r="B72">
+            <v>23</v>
+          </cell>
+          <cell r="C72">
+            <v>191</v>
+          </cell>
+          <cell r="D72">
+            <v>1921</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>float32</v>
+          </cell>
+          <cell r="B73">
+            <v>23</v>
+          </cell>
+          <cell r="C73">
+            <v>204</v>
+          </cell>
+          <cell r="D73">
+            <v>1926</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>float64</v>
+          </cell>
+          <cell r="B74">
+            <v>53</v>
+          </cell>
+          <cell r="C74">
+            <v>4</v>
+          </cell>
+          <cell r="D74">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>bin</v>
+          </cell>
+          <cell r="B75">
+            <v>26</v>
+          </cell>
+          <cell r="C75">
+            <v>8</v>
+          </cell>
+          <cell r="D75">
+            <v>36</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -603,68 +4900,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="A1:G16"/>
+    <sheetView tabSelected="1" topLeftCell="N14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB50" sqref="AB50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
@@ -673,21 +4970,21 @@
       <c r="F3">
         <v>15</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="6">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E4">
@@ -696,21 +4993,21 @@
       <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="6">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E5">
@@ -719,44 +5016,44 @@
       <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="6">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="7">
         <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="6">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E7">
@@ -765,21 +5062,21 @@
       <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="6">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C8">
         <v>9</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E8">
@@ -788,21 +5085,21 @@
       <c r="F8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="6">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E9">
@@ -811,21 +5108,21 @@
       <c r="F9" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="6">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E10">
@@ -834,21 +5131,21 @@
       <c r="F10" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="6">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
@@ -857,21 +5154,21 @@
       <c r="F11" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="6">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C12">
         <v>16</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
@@ -880,21 +5177,21 @@
       <c r="F12" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="6">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C13">
         <v>13</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E13">
@@ -903,21 +5200,21 @@
       <c r="F13" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="6">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
@@ -926,21 +5223,21 @@
       <c r="F14" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="6">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E15" t="s">
@@ -949,33 +5246,683 @@
       <c r="F15" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="9">
         <v>10</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="15"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>62</v>
+      </c>
+      <c r="D22">
+        <v>8461</v>
+      </c>
+      <c r="E22">
+        <v>61827</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>32</v>
+      </c>
+      <c r="E23">
+        <v>1738</v>
+      </c>
+      <c r="F23">
+        <v>36042</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>47</v>
+      </c>
+      <c r="E24">
+        <v>1206</v>
+      </c>
+      <c r="F24">
+        <v>29300</v>
+      </c>
+      <c r="G24">
+        <v>79320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>1056</v>
+      </c>
+      <c r="F25">
+        <v>28047</v>
+      </c>
+      <c r="G25">
+        <v>83168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <v>1298</v>
+      </c>
+      <c r="F26">
+        <v>29300</v>
+      </c>
+      <c r="G26">
+        <v>79100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>32</v>
+      </c>
+      <c r="E27">
+        <v>1591</v>
+      </c>
+      <c r="F27">
+        <v>35039</v>
+      </c>
+      <c r="G27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>33</v>
+      </c>
+      <c r="E28">
+        <v>1584</v>
+      </c>
+      <c r="F28">
+        <v>47066</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>47</v>
+      </c>
+      <c r="E29">
+        <v>1607</v>
+      </c>
+      <c r="F29">
+        <v>45468</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>47</v>
+      </c>
+      <c r="E30">
+        <v>1607</v>
+      </c>
+      <c r="F30">
+        <v>44879</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>195</v>
+      </c>
+      <c r="D31">
+        <v>1820</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>191</v>
+      </c>
+      <c r="D32">
+        <v>1921</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>204</v>
+      </c>
+      <c r="D33">
+        <v>1926</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34">
+        <v>53</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>26</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>36</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>62</v>
+      </c>
+      <c r="D41">
+        <v>8461</v>
+      </c>
+      <c r="E41">
+        <v>61827</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <v>32</v>
+      </c>
+      <c r="E42">
+        <v>1738</v>
+      </c>
+      <c r="F42">
+        <v>36042</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>47</v>
+      </c>
+      <c r="E43">
+        <v>1206</v>
+      </c>
+      <c r="F43">
+        <v>29300</v>
+      </c>
+      <c r="G43">
+        <v>79320</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>31</v>
+      </c>
+      <c r="E44">
+        <v>1056</v>
+      </c>
+      <c r="F44">
+        <v>28047</v>
+      </c>
+      <c r="G44">
+        <v>83168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>32</v>
+      </c>
+      <c r="E45">
+        <v>1298</v>
+      </c>
+      <c r="F45">
+        <v>29300</v>
+      </c>
+      <c r="G45">
+        <v>79100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>32</v>
+      </c>
+      <c r="E46">
+        <v>1591</v>
+      </c>
+      <c r="F46">
+        <v>35039</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>33</v>
+      </c>
+      <c r="E47">
+        <v>1584</v>
+      </c>
+      <c r="F47">
+        <v>47066</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>47</v>
+      </c>
+      <c r="E48">
+        <v>1607</v>
+      </c>
+      <c r="F48">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>47</v>
+      </c>
+      <c r="E49">
+        <v>1607</v>
+      </c>
+      <c r="F49">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <v>195</v>
+      </c>
+      <c r="D50">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51">
+        <v>23</v>
+      </c>
+      <c r="C51">
+        <v>191</v>
+      </c>
+      <c r="D51">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52">
+        <v>23</v>
+      </c>
+      <c r="C52">
+        <v>204</v>
+      </c>
+      <c r="D52">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53">
+        <v>53</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54">
+        <v>26</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B39:G39"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -983,5 +5930,6 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>